--- a/doc/backend/eventlist.xlsx
+++ b/doc/backend/eventlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nextcloud\02 - Projekte\GitHub\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92535F6-12AE-4566-94DC-3E87BEAE4C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0431A0F5-4564-4AF2-B6D9-BFB1C1040CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34605" yWindow="0" windowWidth="16995" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34605" yWindow="0" windowWidth="16995" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
   <si>
     <t>Options</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>idle</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,13 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -250,96 +259,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -362,10 +281,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A708AD1F-33CD-4EE0-AA4B-65DE976A6358}" name="Tabelle1" displayName="Tabelle1" ref="B3:E46" totalsRowShown="0">
   <autoFilter ref="B3:E46" xr:uid="{3BBFBF9C-0F53-422B-9D16-0B9451E58832}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{59D65196-AD0C-4FC7-9F14-66EF9F3CD1A5}" name="event description"/>
     <tableColumn id="4" xr3:uid="{FF9FC7C6-7C9D-4AA4-874A-E8C7C98E0459}" name="priority"/>
-    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -636,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,6 +741,12 @@
       <c r="B16" s="1">
         <v>12</v>
       </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1101,30 +1026,30 @@
     <protectedRange algorithmName="SHA-512" hashValue="rksNwqu0uaKqAdvq/adG7vpI6kDTjjZiFhUDGFtRdG+ZSWevmUQhDOQGf+d9xk3MC9RRXlByEN/YBRxrHFCwRw==" saltValue="4oxeahfFZ1fHIuat056XuA==" spinCount="100000" sqref="J3:J5" name="Optionen"/>
   </protectedRanges>
   <conditionalFormatting sqref="E4:E46">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>ISBLANK(C4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>IF(ISBLANK(E4),FALSE,MATCH($J$4,E4,-1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>IF(ISBLANK(E4),FALSE,MATCH($J$5,E4,-1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D46">
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>$H$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
       <formula>$H$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/backend/eventlist.xlsx
+++ b/doc/backend/eventlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nextcloud\02 - Projekte\GitHub\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0431A0F5-4564-4AF2-B6D9-BFB1C1040CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F93D2-5F83-4CFF-88F7-46354A7B1456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34605" yWindow="0" windowWidth="16995" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
